--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BBD3F9-BED5-4F98-AD0C-14E654582DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A7557A-064A-4847-81CC-18D145C2236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Manager budget</t>
   </si>
   <si>
     <t>Starting value</t>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Scenario</t>
-  </si>
-  <si>
-    <t>User budget</t>
   </si>
   <si>
     <t>N1</t>
@@ -110,6 +107,48 @@
   <si>
     <t>Manager and user budget increase, but manager budget slope is larger (i.e. increase more quickly)</t>
   </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>Pessimistic Null</t>
+  </si>
+  <si>
+    <t>Manager budget remains constant, user budget increases</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Test scenario</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Manager budget increases in steps, user budget increases linearly</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Manager budget increases and decreases in a predictable/regular way above and below a mean (like a sine wave), user budget increases linearly</t>
+  </si>
+  <si>
+    <t>Manager budget increases and decreases unpredictably (drawing from Poisson distribution), user budget increases linearly</t>
+  </si>
+  <si>
+    <t>Are these even relevant seeing as the manager and user budgets are not comparable or proportional?</t>
+  </si>
+  <si>
+    <t>I think all of these scenarios need to have the same cumulative total for the manager budget. So we are asking: given the same total budget over 50 years, what is the best way to receive/invest it?</t>
+  </si>
+  <si>
+    <t>MANAGER BUDGET</t>
+  </si>
+  <si>
+    <t>USER BUDGET</t>
+  </si>
 </sst>
 </file>
 
@@ -132,15 +171,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -148,20 +199,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -179,6 +472,2002 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1615</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1675</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC9C-4946-989B-535567C8ADE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1665133904"/>
+        <c:axId val="1665135984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1665133904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1665135984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1665135984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1665133904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D83A-429E-A92D-8B9F63F95EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1517351168"/>
+        <c:axId val="1517352416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1517351168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517352416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1517352416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517351168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085DC9B1-01A2-4584-8E98-2BE166061018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA336ECD-E010-44EF-8DAB-C05E314E17AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9FB661-68A1-4497-AF3A-764ADECA08FB}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,143 +2787,323 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D3" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="17">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="16">
         <f>D3*50</f>
         <v>50000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="17">
         <v>1000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="17">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="17">
         <f>G3*50</f>
         <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <f>D4*50</f>
+        <v>50000</v>
+      </c>
+      <c r="G4" s="28">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="28">
+        <v>-3</v>
+      </c>
+      <c r="I4" s="28">
+        <v>6325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="17">
+        <v>-3</v>
+      </c>
+      <c r="F5" s="16">
+        <v>6325</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <f>G5*50</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="28">
+        <v>15</v>
+      </c>
+      <c r="F6" s="27">
+        <v>68375</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <f>G6*50</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="9">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F7" s="8">
+        <v>68375</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="9">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8">
+        <v>68375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="22" t="s">
         <v>24</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <f>D10*50</f>
+        <v>50000</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="22">
+        <v>15</v>
+      </c>
+      <c r="I10" s="23">
+        <v>68375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -648,4 +3117,1155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE971661-927D-4F43-BD83-FF2E27F4DD24}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB2498E-2C2D-4737-8AC3-A78E057228E1}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>A1+$B$2</f>
+        <v>1015</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2+$B$2</f>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A50" si="0">A3+$B$2</f>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>1735</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9D8141-4027-45C0-94B9-F4A0CDDB79C3}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1000</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>A1-$C$1</f>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2-$C$1</f>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A50" si="0">A3-$C$1</f>
+        <v>991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>853</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A7557A-064A-4847-81CC-18D145C2236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9C077A-3ACF-49FB-9768-0DF974F56416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9C077A-3ACF-49FB-9768-0DF974F56416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D9034-A774-4DB0-A35C-8950DC57AAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Description</t>
   </si>
@@ -84,12 +84,6 @@
     <t>N3b</t>
   </si>
   <si>
-    <t>N3c</t>
-  </si>
-  <si>
-    <t>N3d</t>
-  </si>
-  <si>
     <t>Decreasing Null</t>
   </si>
   <si>
@@ -100,12 +94,6 @@
   </si>
   <si>
     <t>Manager and user budget increase, with the same slope</t>
-  </si>
-  <si>
-    <t>Manager and user budget increase, but manager budget slope is smaller (i.e. doesn't increase as quickly)</t>
-  </si>
-  <si>
-    <t>Manager and user budget increase, but manager budget slope is larger (i.e. increase more quickly)</t>
   </si>
   <si>
     <t>N4</t>
@@ -138,9 +126,6 @@
     <t>Manager budget increases and decreases unpredictably (drawing from Poisson distribution), user budget increases linearly</t>
   </si>
   <si>
-    <t>Are these even relevant seeing as the manager and user budgets are not comparable or proportional?</t>
-  </si>
-  <si>
     <t>I think all of these scenarios need to have the same cumulative total for the manager budget. So we are asking: given the same total budget over 50 years, what is the best way to receive/invest it?</t>
   </si>
   <si>
@@ -148,6 +133,18 @@
   </si>
   <si>
     <t>USER BUDGET</t>
+  </si>
+  <si>
+    <t>Expectation</t>
+  </si>
+  <si>
+    <t>Cull count will increase</t>
+  </si>
+  <si>
+    <t>Similar number of trees as above</t>
+  </si>
+  <si>
+    <t>Performs less well than above</t>
   </si>
 </sst>
 </file>
@@ -171,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,18 +177,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -386,29 +377,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -417,46 +522,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2767,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9FB661-68A1-4497-AF3A-764ADECA08FB}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2783,327 +2905,285 @@
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="12" t="s">
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="9">
         <v>1000</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="8">
         <f>D3*50</f>
         <v>50000</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="9">
         <v>1000</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="31">
         <f>G3*50</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="16">
         <v>1000</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="15">
         <f>D4*50</f>
         <v>50000</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="16">
         <v>1000</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="16">
         <v>-3</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="32">
         <v>6325</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="9">
         <v>1000</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="9">
         <v>-3</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="8">
         <v>6325</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="9">
         <v>1000</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="31">
         <f>G5*50</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="28">
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10">
         <v>1000</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <f>D8*50</f>
+        <v>50000</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="10">
         <v>15</v>
       </c>
-      <c r="F6" s="27">
+      <c r="I8" s="35">
         <v>68375</v>
       </c>
-      <c r="G6" s="11">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <f>G6*50</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="9">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8">
-        <v>68375</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="9">
-        <v>15</v>
-      </c>
-      <c r="I7" s="8">
-        <v>68375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>18</v>
+      <c r="J8" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="22">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <f>D10*50</f>
-        <v>50000</v>
-      </c>
-      <c r="G10" s="22">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="22">
-        <v>15</v>
-      </c>
-      <c r="I10" s="23">
-        <v>68375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="39"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D9034-A774-4DB0-A35C-8950DC57AAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA5D1D2-3201-44D2-8687-4989DF1C94D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA5D1D2-3201-44D2-8687-4989DF1C94D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C219C49-4A73-44CC-A904-31EA6FEB746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Manager budget remains constant, user budget increases</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>Test scenario</t>
   </si>
   <si>
@@ -145,6 +142,15 @@
   </si>
   <si>
     <t>Performs less well than above</t>
+  </si>
+  <si>
+    <t>T1a</t>
+  </si>
+  <si>
+    <t>T1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As above, but the amplitude is half and the period is double </t>
   </si>
 </sst>
 </file>
@@ -511,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -543,6 +549,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,6 +568,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -564,21 +585,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2889,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9FB661-68A1-4497-AF3A-764ADECA08FB}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2909,33 +2919,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="2" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2951,10 +2961,10 @@
       <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="40"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -2982,11 +2992,11 @@
       <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="24">
         <f>G3*50</f>
         <v>50000</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -3014,10 +3024,10 @@
       <c r="H4" s="16">
         <v>-3</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="25">
         <v>6325</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -3044,11 +3054,11 @@
       <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="24">
         <f>G5*50</f>
         <v>50000</v>
       </c>
-      <c r="J5" s="38"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
@@ -3065,8 +3075,8 @@
       <c r="F6" s="15"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="38"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
@@ -3083,8 +3093,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="38"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -3112,78 +3122,96 @@
       <c r="H8" s="10">
         <v>15</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="28">
         <v>68375</v>
       </c>
-      <c r="J8" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="38" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="12" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="31"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J12" s="39"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3201,512 +3229,812 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE971661-927D-4F43-BD83-FF2E27F4DD24}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>350</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>450</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>550</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>650</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>700</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>750</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>800</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>850</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>900</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>950</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1050</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1150</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1200</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1250</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1300</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1350</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1400</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1450</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1500</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1550</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1600</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1650</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1700</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1750</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1800</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1850</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1900</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1950</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2000</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2050</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2150</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2200</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2250</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2300</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2350</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2400</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2450</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2500</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2550</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2600</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2650</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2700</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2750</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2800</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2850</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2900</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2950</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3050</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3100</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3150</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3200</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3250</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3300</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3350</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3400</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3450</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3500</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3550</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3600</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3650</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3700</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3750</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3800</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3850</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3900</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3950</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4000</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4050</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4100</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4150</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4200</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4250</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4300</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4350</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4400</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4450</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4500</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4550</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4600</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4650</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4700</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4750</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4800</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4850</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4900</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4950</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5000</v>
+      </c>
+      <c r="C100">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C219C49-4A73-44CC-A904-31EA6FEB746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE7277-3F47-4628-AB17-DF9D81DF3D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Description</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Manager budget increases and decreases in a predictable/regular way above and below a mean (like a sine wave), user budget increases linearly</t>
   </si>
   <si>
-    <t>Manager budget increases and decreases unpredictably (drawing from Poisson distribution), user budget increases linearly</t>
-  </si>
-  <si>
     <t>I think all of these scenarios need to have the same cumulative total for the manager budget. So we are asking: given the same total budget over 50 years, what is the best way to receive/invest it?</t>
   </si>
   <si>
@@ -152,6 +149,21 @@
   <si>
     <t xml:space="preserve">As above, but the amplitude is half and the period is double </t>
   </si>
+  <si>
+    <t>Manager budget increases and decreases unpredictably (using Fourier series to create random complex waves), user budget increases linearly</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Supporting Info</t>
+  </si>
+  <si>
+    <t>Main text</t>
+  </si>
+  <si>
+    <t>Not sure I want to include the above orange scenario</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +196,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -532,11 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -561,6 +581,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +615,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2899,74 +2933,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9FB661-68A1-4497-AF3A-764ADECA08FB}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -2974,62 +3013,68 @@
         <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9">
+      <c r="E3" s="9">
         <v>1000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
-        <f>D3*50</f>
+      <c r="G3" s="8">
+        <f>E3*50</f>
         <v>50000</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <v>1000</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="24">
-        <f>G3*50</f>
+      <c r="J3" s="22">
+        <f>H3*50</f>
         <v>50000</v>
       </c>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16">
+      <c r="E4" s="14">
         <v>1000</v>
       </c>
-      <c r="E4" s="16">
+      <c r="F4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="15">
-        <f>D4*50</f>
+      <c r="G4" s="13">
+        <f>E4*50</f>
         <v>50000</v>
       </c>
-      <c r="G4" s="16">
+      <c r="H4" s="14">
         <v>1000</v>
       </c>
-      <c r="H4" s="16">
+      <c r="I4" s="14">
         <v>-3</v>
       </c>
-      <c r="I4" s="25">
+      <c r="J4" s="23">
         <v>6325</v>
       </c>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -3037,189 +3082,216 @@
         <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9">
+      <c r="E5" s="9">
         <v>1000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <v>-3</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>6325</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>1000</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="24">
-        <f>G5*50</f>
+      <c r="J5" s="22">
+        <f>H5*50</f>
         <v>50000</v>
       </c>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="3"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10">
+      <c r="E8" s="10">
         <v>1000</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="11">
-        <f>D8*50</f>
+      <c r="G8" s="11">
+        <f>E8*50</f>
         <v>50000</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>1000</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>15</v>
       </c>
-      <c r="I8" s="28">
+      <c r="J8" s="26">
         <v>68375</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="K8" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+    <row r="10" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="30" t="s">
+      <c r="C10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="18" t="s">
+    <row r="12" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J13" s="31"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="5"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE7277-3F47-4628-AB17-DF9D81DF3D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991734D1-4456-4C26-9925-93659881AD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991734D1-4456-4C26-9925-93659881AD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FFEE45-83E8-4667-A02D-2764A71C85CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
@@ -591,6 +591,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,14 +623,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2954,37 +2954,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="31"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="38"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -3254,16 +3254,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="5"/>
@@ -3275,7 +3275,7 @@
       <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="40" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="29"/>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FFEE45-83E8-4667-A02D-2764A71C85CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02051A6-59DC-443E-8437-EE6387D5D5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Description</t>
   </si>
@@ -81,9 +81,6 @@
     <t>N3a</t>
   </si>
   <si>
-    <t>N3b</t>
-  </si>
-  <si>
     <t>Decreasing Null</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Manager and user budget increase, with the same slope</t>
   </si>
   <si>
-    <t>N4</t>
-  </si>
-  <si>
     <t>Pessimistic Null</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
   </si>
   <si>
     <t>Test scenario</t>
-  </si>
-  <si>
-    <t>T2</t>
   </si>
   <si>
     <t>Manager budget increases in steps, user budget increases linearly</t>
@@ -141,12 +132,6 @@
     <t>Performs less well than above</t>
   </si>
   <si>
-    <t>T1a</t>
-  </si>
-  <si>
-    <t>T1b</t>
-  </si>
-  <si>
     <t xml:space="preserve">As above, but the amplitude is half and the period is double </t>
   </si>
   <si>
@@ -163,6 +148,24 @@
   </si>
   <si>
     <t>Not sure I want to include the above orange scenario</t>
+  </si>
+  <si>
+    <t>manager budget not more than 130% of user budget</t>
+  </si>
+  <si>
+    <t>manager budget no less than 80% of user budget</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>~5 years</t>
+  </si>
+  <si>
+    <t>~2-3 years</t>
   </si>
 </sst>
 </file>
@@ -470,21 +473,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -537,11 +525,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -576,11 +577,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,7 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -608,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,6 +622,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2933,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9FB661-68A1-4497-AF3A-764ADECA08FB}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2946,66 +2948,70 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="48"/>
+      <c r="E1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="39"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="46"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -3024,31 +3030,32 @@
       <c r="F3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
         <f>E3*50</f>
         <v>50000</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <v>1000</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="J3" s="22">
-        <f>H3*50</f>
+      <c r="K3" s="22">
+        <f>I3*50</f>
         <v>50000</v>
       </c>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -3059,30 +3066,31 @@
       <c r="F4" s="14">
         <v>0</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
         <f>E4*50</f>
         <v>50000</v>
       </c>
-      <c r="H4" s="14">
+      <c r="I4" s="14">
         <v>1000</v>
       </c>
-      <c r="I4" s="14">
+      <c r="J4" s="14">
         <v>-3</v>
       </c>
-      <c r="J4" s="23">
+      <c r="K4" s="23">
         <v>6325</v>
       </c>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>12</v>
@@ -3093,203 +3101,276 @@
       <c r="F5" s="9">
         <v>-3</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
         <v>6325</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>1000</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="22">
-        <f>H5*50</f>
+      <c r="K5" s="22">
+        <f>I5*50</f>
         <v>50000</v>
       </c>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
+      <c r="J6" s="5"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="47">
+        <v>1</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="E7" s="10">
+        <v>500</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="11">
+        <v>25000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>400</v>
+      </c>
+      <c r="J7" s="10">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K7" s="25">
+        <v>25000.02</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10">
+        <v>400</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="25">
+        <v>25000.02</v>
+      </c>
+      <c r="I8" s="10">
+        <v>400</v>
+      </c>
+      <c r="J8" s="10">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K8" s="25">
+        <v>25000.02</v>
+      </c>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <f>E8*50</f>
-        <v>50000</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="10">
-        <v>15</v>
-      </c>
-      <c r="J8" s="26">
-        <v>68375</v>
-      </c>
-      <c r="K8" s="28" t="s">
+      <c r="C9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14">
+        <v>491.52100000000002</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="13">
+        <v>25000.03</v>
+      </c>
+      <c r="I9" s="10">
+        <v>400</v>
+      </c>
+      <c r="J9" s="10">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K9" s="25">
+        <v>25000.02</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="28" t="s">
+      <c r="E10" s="5">
+        <v>490.73500000000001</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4">
+        <v>25000.21</v>
+      </c>
+      <c r="I10" s="10">
+        <v>400</v>
+      </c>
+      <c r="J10" s="10">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K10" s="25">
+        <v>25000.02</v>
+      </c>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="10">
+        <v>400</v>
+      </c>
+      <c r="J11" s="10">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K11" s="25">
+        <v>25000.02</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>24</v>
+      <c r="B12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="4"/>
+      <c r="I12" s="10">
+        <v>400</v>
+      </c>
+      <c r="J12" s="10">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K12" s="25">
+        <v>25000.02</v>
+      </c>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B1:B2"/>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02051A6-59DC-443E-8437-EE6387D5D5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389724C6-60BC-4650-BEFD-5D6C2056DBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389724C6-60BC-4650-BEFD-5D6C2056DBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D5AA4-A6CC-459B-893E-4B2A1F785064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Description</t>
   </si>
@@ -99,19 +99,7 @@
     <t>Manager budget remains constant, user budget increases</t>
   </si>
   <si>
-    <t>Test scenario</t>
-  </si>
-  <si>
-    <t>Manager budget increases in steps, user budget increases linearly</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
     <t>Manager budget increases and decreases in a predictable/regular way above and below a mean (like a sine wave), user budget increases linearly</t>
-  </si>
-  <si>
-    <t>I think all of these scenarios need to have the same cumulative total for the manager budget. So we are asking: given the same total budget over 50 years, what is the best way to receive/invest it?</t>
   </si>
   <si>
     <t>MANAGER BUDGET</t>
@@ -132,12 +120,6 @@
     <t>Performs less well than above</t>
   </si>
   <si>
-    <t xml:space="preserve">As above, but the amplitude is half and the period is double </t>
-  </si>
-  <si>
-    <t>Manager budget increases and decreases unpredictably (using Fourier series to create random complex waves), user budget increases linearly</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -145,15 +127,6 @@
   </si>
   <si>
     <t>Main text</t>
-  </si>
-  <si>
-    <t>Not sure I want to include the above orange scenario</t>
-  </si>
-  <si>
-    <t>manager budget not more than 130% of user budget</t>
-  </si>
-  <si>
-    <t>manager budget no less than 80% of user budget</t>
   </si>
   <si>
     <t>NA</t>
@@ -166,6 +139,33 @@
   </si>
   <si>
     <t>~2-3 years</t>
+  </si>
+  <si>
+    <t>manager budget not more than 140% of user budget</t>
+  </si>
+  <si>
+    <t>manager budget no less than 70% of user budget</t>
+  </si>
+  <si>
+    <t>Sine wave</t>
+  </si>
+  <si>
+    <t>Random complex wave</t>
+  </si>
+  <si>
+    <t>Cull count will be &gt;0 but will not increase as much as the above</t>
+  </si>
+  <si>
+    <t>449.9 - 527.7</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Manager budget increases and decreases unpredictably (using Fourier series to create random complex waves), user budget increases linearly. There are currently 10 waves that constitute this scenario</t>
+  </si>
+  <si>
+    <t>As above, but the wavelength is shorter (higher frequency) and the amplitude is smaller</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,14 +208,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -467,21 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -542,9 +521,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -557,7 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -576,11 +553,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,13 +567,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,7 +580,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,9 +595,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2935,10 +2911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9FB661-68A1-4497-AF3A-764ADECA08FB}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2956,415 +2932,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="26" t="s">
+      <c r="E1" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="29"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>1000</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
         <f>E3*50</f>
         <v>50000</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>1000</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>0</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <f>I3*50</f>
         <v>50000</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>1000</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>0</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
         <f>E4*50</f>
         <v>50000</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <v>1000</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <v>-3</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <v>6325</v>
       </c>
-      <c r="L4" s="27"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>1000</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-3</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>6325</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>1000</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>0</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="20">
         <f>I5*50</f>
         <v>50000</v>
       </c>
-      <c r="L5" s="27"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="32">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9">
+        <v>500</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10">
+        <v>25000</v>
+      </c>
+      <c r="I7" s="9">
+        <v>400</v>
+      </c>
+      <c r="J7" s="9">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K7" s="10">
+        <v>25000</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="9">
+        <v>400</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="10">
+        <v>25000</v>
+      </c>
+      <c r="I8" s="9">
+        <v>400</v>
+      </c>
+      <c r="J8" s="9">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K8" s="10">
+        <v>25000</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12">
+        <v>497.7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="10">
+        <v>25000</v>
+      </c>
+      <c r="I9" s="9">
+        <v>400</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K9" s="10">
+        <v>25000</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4">
+        <v>490.73500000000001</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="10">
+        <v>25000</v>
+      </c>
+      <c r="I10" s="9">
+        <v>400</v>
+      </c>
+      <c r="J10" s="9">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K10" s="10">
+        <v>25000</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25000</v>
+      </c>
+      <c r="I11" s="9">
+        <v>400</v>
+      </c>
+      <c r="J11" s="9">
+        <v>4.0815999999999999</v>
+      </c>
+      <c r="K11" s="10">
+        <v>25000</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
-        <v>1</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="10">
-        <v>500</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="11">
-        <v>25000</v>
-      </c>
-      <c r="I7" s="10">
-        <v>400</v>
-      </c>
-      <c r="J7" s="10">
-        <v>4.0815999999999999</v>
-      </c>
-      <c r="K7" s="25">
-        <v>25000.02</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
-        <v>2</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10">
-        <v>400</v>
-      </c>
-      <c r="F8" s="10">
-        <v>4.0815999999999999</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="25">
-        <v>25000.02</v>
-      </c>
-      <c r="I8" s="10">
-        <v>400</v>
-      </c>
-      <c r="J8" s="10">
-        <v>4.0815999999999999</v>
-      </c>
-      <c r="K8" s="25">
-        <v>25000.02</v>
-      </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
-        <v>3</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14">
-        <v>491.52100000000002</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="13">
-        <v>25000.03</v>
-      </c>
-      <c r="I9" s="10">
-        <v>400</v>
-      </c>
-      <c r="J9" s="10">
-        <v>4.0815999999999999</v>
-      </c>
-      <c r="K9" s="25">
-        <v>25000.02</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32">
-        <v>4</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5">
-        <v>490.73500000000001</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="4">
-        <v>25000.21</v>
-      </c>
-      <c r="I10" s="10">
-        <v>400</v>
-      </c>
-      <c r="J10" s="10">
-        <v>4.0815999999999999</v>
-      </c>
-      <c r="K10" s="25">
-        <v>25000.02</v>
-      </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="10">
-        <v>400</v>
-      </c>
-      <c r="J11" s="10">
-        <v>4.0815999999999999</v>
-      </c>
-      <c r="K11" s="25">
-        <v>25000.02</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="10">
-        <v>400</v>
-      </c>
-      <c r="J12" s="10">
-        <v>4.0815999999999999</v>
-      </c>
-      <c r="K12" s="25">
-        <v>25000.02</v>
-      </c>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D5AA4-A6CC-459B-893E-4B2A1F785064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823EE2E6-422E-4100-BCE9-BF53D4FCA5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Manager budget decreases, user budget remains contant</t>
-  </si>
-  <si>
-    <t>N3a</t>
   </si>
   <si>
     <t>Decreasing Null</t>
@@ -167,11 +164,17 @@
   <si>
     <t>As above, but the wavelength is shorter (higher frequency) and the amplitude is smaller</t>
   </si>
+  <si>
+    <t>N3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -571,6 +574,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,12 +604,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2913,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9FB661-68A1-4497-AF3A-764ADECA08FB}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2932,38 +2936,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="27"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="23" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="42"/>
+        <v>26</v>
+      </c>
+      <c r="D2" s="46"/>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>3</v>
@@ -2995,7 +2999,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
@@ -3028,10 +3032,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>11</v>
@@ -3063,10 +3067,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>12</v>
@@ -3094,17 +3098,17 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -3120,13 +3124,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="9">
         <v>500</v>
@@ -3135,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="10">
         <v>25000</v>
@@ -3150,7 +3154,7 @@
         <v>25000</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3158,13 +3162,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="9">
         <v>400</v>
@@ -3173,7 +3177,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="10">
         <v>25000</v>
@@ -3187,8 +3191,8 @@
       <c r="K8" s="10">
         <v>25000</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>38</v>
+      <c r="L8" s="38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3196,22 +3200,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="12">
         <v>497.7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="10">
         <v>25000</v>
@@ -3226,7 +3230,7 @@
         <v>25000</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3234,22 +3238,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="47">
+        <v>499.65690000000001</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="4">
-        <v>490.73500000000001</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="10">
         <v>25000</v>
@@ -3264,7 +3268,7 @@
         <v>25000</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3272,22 +3276,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H11" s="1">
         <v>25000</v>
@@ -3302,7 +3306,7 @@
         <v>25000</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3311,12 +3315,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823EE2E6-422E-4100-BCE9-BF53D4FCA5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357ECC9B-A937-4736-AC46-9F78A61F82A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -580,6 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,7 +606,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2918,7 +2919,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2936,38 +2937,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="27"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="42"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3246,7 +3247,7 @@
       <c r="D10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="39">
         <v>499.65690000000001</v>
       </c>
       <c r="F10" s="4" t="s">

--- a/Scenario_details_budgets.xlsx
+++ b/Scenario_details_budgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_GMSE_chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357ECC9B-A937-4736-AC46-9F78A61F82A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83544670-07B9-4967-9F5A-CAD5CB2A6581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1212E98E-316A-4462-9DDD-C4D6B4A104FA}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2919,7 +2918,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
